--- a/Trabajo_3/2R2D/Fit_model_2D2R_numeric.xlsx
+++ b/Trabajo_3/2R2D/Fit_model_2D2R_numeric.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\GGE\Trabajos_GGE\Trabajo_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d47032d817d70444/MASTER MUSE/2 CUATRI/POTENCIA/TRABAJO 0/GITHUB/Trabajos_GGE/Trabajo_3/2R2D/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5900CCD2-419A-4D75-A449-5A9EEB3ACFF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{5900CCD2-419A-4D75-A449-5A9EEB3ACFF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DDB9FE95-C940-4A04-814B-59B5EB8ED2D9}"/>
   <bookViews>
-    <workbookView xWindow="1944" yWindow="768" windowWidth="16404" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -438,7 +438,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -449,12 +449,12 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -480,76 +480,76 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.76700000000000002</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="C2">
-        <v>1.22E-8</v>
+        <v>1.8099999999999999E-7</v>
       </c>
       <c r="D2">
-        <v>6.9699999999999997E-9</v>
+        <v>7.3600000000000003E-7</v>
       </c>
       <c r="E2">
-        <v>4.8599999999999997E-2</v>
+        <v>3.7600000000000001E-2</v>
       </c>
       <c r="F2">
-        <v>1.32</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.34</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="C3">
-        <v>-1.63E-8</v>
+        <v>4.0199999999999998E-15</v>
       </c>
       <c r="D3">
-        <v>3.8399999999999998E-11</v>
+        <v>9.2300000000000001E-16</v>
       </c>
       <c r="E3">
-        <v>7.07</v>
+        <v>0.108</v>
       </c>
       <c r="F3">
-        <v>0.30399999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="G3">
-        <v>0.307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.34</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="C4">
-        <v>-1.63E-8</v>
+        <v>1.5200000000000001E-14</v>
       </c>
       <c r="D4">
-        <v>4.1999999999999997E-11</v>
+        <v>-4.2099999999999999E-14</v>
       </c>
       <c r="E4">
-        <v>7.19</v>
+        <v>7.6100000000000001E-2</v>
       </c>
       <c r="F4">
-        <v>0.29099999999999998</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>0.29399999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -572,7 +572,7 @@
         <v>8.36</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -595,7 +595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -618,7 +618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>

--- a/Trabajo_3/2R2D/Fit_model_2D2R_numeric.xlsx
+++ b/Trabajo_3/2R2D/Fit_model_2D2R_numeric.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d47032d817d70444/MASTER MUSE/2 CUATRI/POTENCIA/TRABAJO 0/GITHUB/Trabajos_GGE/Trabajo_3/2R2D/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\María Elena\OneDrive\MASTER MUSE\2 CUATRI\POTENCIA\TRABAJOS GRUPO\Trabajos_GGE\Trabajo_3\2R2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{5900CCD2-419A-4D75-A449-5A9EEB3ACFF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DDB9FE95-C940-4A04-814B-59B5EB8ED2D9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24921A46-F638-44D1-9F42-7E1E78355B6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28020" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>RTC France</t>
   </si>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t>a2</t>
+  </si>
+  <si>
+    <t>CTJ30</t>
+  </si>
+  <si>
+    <t>ATJ</t>
+  </si>
+  <si>
+    <t>4S1P</t>
   </si>
 </sst>
 </file>
@@ -446,10 +455,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B6DB76-1AB9-4B59-988F-52161DAB36C9}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,19 +497,22 @@
         <v>0.76200000000000001</v>
       </c>
       <c r="C2">
-        <v>1.8099999999999999E-7</v>
+        <v>2.5600000000000002E-7</v>
       </c>
       <c r="D2">
-        <v>7.3600000000000003E-7</v>
+        <v>2.6399999999999998E-7</v>
       </c>
       <c r="E2">
-        <v>3.7600000000000001E-2</v>
+        <v>3.7100000000000001E-2</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>44.6</v>
       </c>
       <c r="G2">
-        <v>1.43</v>
+        <v>1.46</v>
+      </c>
+      <c r="H2">
+        <v>2.16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -511,19 +523,22 @@
         <v>0.52600000000000002</v>
       </c>
       <c r="C3">
-        <v>4.0199999999999998E-15</v>
+        <v>5.5700000000000002E-15</v>
       </c>
       <c r="D3">
-        <v>9.2300000000000001E-16</v>
+        <v>2.7000000000000001E-15</v>
       </c>
       <c r="E3">
-        <v>0.108</v>
+        <v>0.105</v>
       </c>
       <c r="F3">
-        <v>1.08</v>
+        <v>228</v>
       </c>
       <c r="G3">
-        <v>1.02</v>
+        <v>1.03</v>
+      </c>
+      <c r="H3">
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -534,19 +549,22 @@
         <v>0.46400000000000002</v>
       </c>
       <c r="C4">
-        <v>1.5200000000000001E-14</v>
+        <v>5.1099999999999998E-14</v>
       </c>
       <c r="D4">
-        <v>-4.2099999999999999E-14</v>
+        <v>-6.9599999999999996E-13</v>
       </c>
       <c r="E4">
-        <v>7.6100000000000001E-2</v>
+        <v>6.0900000000000003E-2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>451</v>
       </c>
       <c r="G4">
-        <v>1.1299999999999999</v>
+        <v>1.17</v>
+      </c>
+      <c r="H4">
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -554,22 +572,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.8</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="C5">
-        <v>-1.12E-7</v>
+        <v>1.0599999999999999E-18</v>
       </c>
       <c r="D5">
-        <v>3.2899999999999997E-14</v>
+        <v>3.0699999999999998E-18</v>
       </c>
       <c r="E5">
-        <v>26.7</v>
+        <v>8.48E-2</v>
       </c>
       <c r="F5">
-        <v>6.92</v>
+        <v>3310</v>
       </c>
       <c r="G5">
-        <v>8.36</v>
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="H5">
+        <v>2.86</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -577,22 +598,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="C6">
-        <v>1E-8</v>
+        <v>1.72E-6</v>
       </c>
       <c r="D6">
-        <v>1E-8</v>
+        <v>1.11E-6</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>683</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>1.28</v>
+      </c>
+      <c r="H6">
+        <v>4.01</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -600,22 +624,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>8.19</v>
       </c>
       <c r="C7">
-        <v>1E-8</v>
+        <v>1.13E-9</v>
       </c>
       <c r="D7">
-        <v>1E-8</v>
+        <v>5.2600000000000004E-10</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>1.05</v>
+      </c>
+      <c r="H7">
+        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -623,22 +650,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.499</v>
       </c>
       <c r="C8">
-        <v>1E-8</v>
+        <v>7.3600000000000003E-17</v>
       </c>
       <c r="D8">
-        <v>1E-8</v>
+        <v>4.9200000000000001E-16</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>1580</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="H8">
+        <v>1.71</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -646,22 +676,103 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.31</v>
+        <v>7.54</v>
       </c>
       <c r="C9">
-        <v>1.2100000000000001E-8</v>
+        <v>7.3499999999999998E-5</v>
       </c>
       <c r="D9">
-        <v>2.9100000000000001E-9</v>
+        <v>9.0600000000000007E-5</v>
       </c>
       <c r="E9">
-        <v>-3.4099999999999998E-2</v>
+        <v>-2.3700000000000001E-3</v>
       </c>
       <c r="F9">
-        <v>1.58</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="G9">
-        <v>1.65</v>
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="H9">
+        <v>0.99299999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="C10">
+        <v>2.5000000000000001E-14</v>
+      </c>
+      <c r="D10">
+        <v>2.0399999999999999E-13</v>
+      </c>
+      <c r="E10">
+        <v>7.6300000000000007E-2</v>
+      </c>
+      <c r="F10">
+        <v>1340</v>
+      </c>
+      <c r="G10">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H10">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>0.434</v>
+      </c>
+      <c r="C11">
+        <v>2.3799999999999999E-20</v>
+      </c>
+      <c r="D11">
+        <v>-4.8199999999999999E-20</v>
+      </c>
+      <c r="E11">
+        <v>0.18</v>
+      </c>
+      <c r="F11">
+        <v>235</v>
+      </c>
+      <c r="G11">
+        <v>0.752</v>
+      </c>
+      <c r="H11">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="C12">
+        <v>9.7200000000000002E-39</v>
+      </c>
+      <c r="D12">
+        <v>6.649999999999999E-37</v>
+      </c>
+      <c r="E12">
+        <v>1.27</v>
+      </c>
+      <c r="F12">
+        <v>17800</v>
+      </c>
+      <c r="G12">
+        <v>1.24</v>
+      </c>
+      <c r="H12">
+        <v>1.76</v>
       </c>
     </row>
   </sheetData>
